--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3490180.222752217</v>
+        <v>3487928.14304101</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>70.01505925776814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>103.9069048230583</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>79.4025220533179</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>176.7697821123584</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>57.81578986397533</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>127.4503987265475</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620228</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>226.126577530026</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>55.17585209939222</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380458</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054831</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710094</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056951</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>23.6255456814136</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.70843787977304</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042095</v>
       </c>
     </row>
     <row r="23">
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.295034370327</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027922</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.6065435523126</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.138951213863</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C2" t="n">
-        <v>1661.138951213863</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="D2" t="n">
-        <v>1302.873252607112</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>926.1215352571917</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189674</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213863</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>443.0505103572855</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1672.610059882606</v>
+        <v>845.4915543310553</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>845.4915543310553</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>624.6989751875252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2034.604709474942</v>
+        <v>921.7704558796243</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>552.8079389392126</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>552.8079389392126</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477505</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.124661698547</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474942</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.035106955553</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>512.2748146547619</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995486</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019675</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>552.3777707160739</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004714</v>
@@ -5264,22 +5264,22 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5300,28 +5300,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>214.9229991561127</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,19 +5419,19 @@
         <v>513.8536007400721</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5537,28 +5537,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756267</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913855</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417938</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972545</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211832</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616111</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913854</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,37 +6212,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,10 +6449,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6467,22 +6467,22 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,55 +7154,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.13892827624215</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>122.8084169651556</v>
+        <v>36.41624546988271</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431582</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624213</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193492417</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283486</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.40333084624521</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678704.7680095138</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132557</v>
-      </c>
       <c r="H2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.604713255</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551204</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.641531071072677e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319416</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184266</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184272</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="L4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184265</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184265</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184278</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26479,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
+        <v>101122.5298239072</v>
+      </c>
+      <c r="G5" t="n">
         <v>101122.5298239071</v>
       </c>
-      <c r="G5" t="n">
-        <v>101122.5298239072</v>
-      </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770008.8920477177</v>
+        <v>-770008.8920477174</v>
       </c>
       <c r="C6" t="n">
+        <v>558735.8536798754</v>
+      </c>
+      <c r="D6" t="n">
         <v>558735.8536798753</v>
       </c>
-      <c r="D6" t="n">
-        <v>558735.8536798751</v>
-      </c>
       <c r="E6" t="n">
-        <v>306468.8049701502</v>
+        <v>306434.0670447137</v>
       </c>
       <c r="F6" t="n">
-        <v>631881.2667775054</v>
+        <v>631846.5288520696</v>
       </c>
       <c r="G6" t="n">
-        <v>631881.2667775057</v>
+        <v>631846.52885207</v>
       </c>
       <c r="H6" t="n">
-        <v>631881.2667775057</v>
+        <v>631846.5288520694</v>
       </c>
       <c r="I6" t="n">
-        <v>631881.2667775056</v>
+        <v>631846.5288520699</v>
       </c>
       <c r="J6" t="n">
-        <v>414350.0643802281</v>
+        <v>414315.3264547924</v>
       </c>
       <c r="K6" t="n">
-        <v>631881.2667775053</v>
+        <v>631846.52885207</v>
       </c>
       <c r="L6" t="n">
-        <v>631881.2667775055</v>
+        <v>631846.52885207</v>
       </c>
       <c r="M6" t="n">
-        <v>546826.2388419935</v>
+        <v>546791.500916558</v>
       </c>
       <c r="N6" t="n">
-        <v>631881.2667775054</v>
+        <v>631846.5288520701</v>
       </c>
       <c r="O6" t="n">
-        <v>631881.2667775054</v>
+        <v>631846.5288520699</v>
       </c>
       <c r="P6" t="n">
-        <v>631881.2667775059</v>
+        <v>631846.5288520699</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022917</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>311.9153108144936</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>302.9691409186531</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>87.84429904530994</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>48.93987327667872</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>307.4571019070322</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>254.4799713457143</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>105.0742887270144</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>139.1463142409816</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>314.5552485790768</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276459</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860427</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28573,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.789547823101709e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-2.653057900144689e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987485</v>
@@ -31628,10 +31628,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>483.3274636075158</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,34 +32072,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>258.3858318060495</v>
       </c>
       <c r="L15" t="n">
-        <v>490.5075832355672</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.6544928674244</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>322.7581251332982</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950807</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,34 +32549,34 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>173.3851399586643</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043726</v>
@@ -33020,13 +33020,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175677</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,19 +33971,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q9" t="n">
         <v>159.233896612727</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>120.5443928316905</v>
       </c>
       <c r="L15" t="n">
-        <v>351.953203455693</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
         <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>180.6240912112798</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>37.76383318075048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875399</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36364,7 +36364,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
         <v>735.300110790295</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
